--- a/Assets/bin/graphics/table/ResourceTable.xlsx
+++ b/Assets/bin/graphics/table/ResourceTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C678FFB3-C61C-4F54-8451-34F33DFE4CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0C31B7-3F98-45FB-9C8A-2C4ECF348642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffer" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
   <si>
     <t>../BufferTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,6 +366,25 @@
   </si>
   <si>
     <t>1280, 720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R8G8B8A8_UNORM</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-3000-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin\shader\VS_SkyBox.hlsl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -469,6 +488,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -923,7 +951,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1042,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF5D3E1-5B1A-4EE3-94EB-2356032A60E1}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1098,34 +1126,36 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -1151,7 +1181,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -1177,7 +1207,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -1203,7 +1233,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -1229,16 +1259,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
         <v>83</v>
@@ -1252,6 +1282,44 @@
       <c r="J8">
         <v>1</v>
       </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1408,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6A424A-8EEF-47CF-A093-D188DE6D6807}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1461,16 +1529,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1483,11 +1551,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
       <c r="E4" t="s">
         <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1504,7 +1578,7 @@
         <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1521,7 +1595,7 @@
         <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1538,7 +1612,7 @@
         <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1552,18 +1626,35 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
         <v>63</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
     </row>
@@ -1578,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259E956-8E75-4517-BA6D-F8B92BFC35D4}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1658,13 +1749,13 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
         <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1673,6 +1764,29 @@
         <v>77</v>
       </c>
       <c r="G4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
         <v>82</v>
       </c>
     </row>

--- a/Assets/bin/graphics/table/ResourceTable.xlsx
+++ b/Assets/bin/graphics/table/ResourceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0C31B7-3F98-45FB-9C8A-2C4ECF348642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C94ADF-DC4E-4409-A665-1EFC35E7F988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="25410" windowHeight="11385" activeTab="2" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffer" sheetId="1" r:id="rId1"/>
@@ -219,12 +219,6 @@
     <t>WrapLinear</t>
   </si>
   <si>
-    <t>MIN_MAG_MIP_POINT</t>
-  </si>
-  <si>
-    <t>Wrap</t>
-  </si>
-  <si>
     <t>Less</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,6 +379,14 @@
   </si>
   <si>
     <t>bin\shader\VS_SkyBox.hlsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIN_MAG_MIP_LINEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clamp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,13 +492,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1127,7 +1129,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
@@ -1138,10 +1140,10 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H3" s="6">
         <v>1</v>
@@ -1167,7 +1169,7 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1193,7 +1195,7 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1219,7 +1221,7 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1245,7 +1247,7 @@
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1271,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1297,7 +1299,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1334,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4560A-F35D-4988-9549-4C651F4AA502}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1404,16 +1406,16 @@
         <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -1422,19 +1424,19 @@
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1495,7 +1497,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1503,42 +1505,42 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>58</v>
-      </c>
-      <c r="H2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1552,13 +1554,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -1575,7 +1577,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -1592,7 +1594,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
         <v>26</v>
@@ -1609,7 +1611,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1626,7 +1628,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1643,7 +1645,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1671,7 +1673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259E956-8E75-4517-BA6D-F8B92BFC35D4}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1689,7 +1691,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1697,97 +1699,97 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>68</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>69</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>70</v>
-      </c>
-      <c r="H2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>76</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/bin/graphics/table/ResourceTable.xlsx
+++ b/Assets/bin/graphics/table/ResourceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C94ADF-DC4E-4409-A665-1EFC35E7F988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952AA1F9-50F6-4CE9-9FEC-9480E3E3BDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="25410" windowHeight="11385" activeTab="2" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="25410" windowHeight="11385" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffer" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="94">
   <si>
     <t>../BufferTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,6 +387,26 @@
   </si>
   <si>
     <t>Clamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-4000-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-5000-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin\shader\VS_Grid.hlsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin\shader\PS_Grid.hlsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerDebug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -950,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8BBF2-956F-48E9-BBE6-729EE7E2F5E2}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1059,6 +1079,23 @@
       </c>
       <c r="F6">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7">
+        <v>256</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1336,7 +1373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4560A-F35D-4988-9549-4C651F4AA502}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1671,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259E956-8E75-4517-BA6D-F8B92BFC35D4}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1792,6 +1829,52 @@
         <v>80</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/bin/graphics/table/ResourceTable.xlsx
+++ b/Assets/bin/graphics/table/ResourceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952AA1F9-50F6-4CE9-9FEC-9480E3E3BDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190C06F1-BA62-4E47-9F2A-822D85A69CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="25410" windowHeight="11385" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="25410" windowHeight="11385" activeTab="2" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffer" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
   <si>
     <t>../BufferTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,10 +386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Clamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>00000000-0000-0000-4000-000000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -407,6 +403,56 @@
   </si>
   <si>
     <t>PerDebug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-6000-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-7000-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-8000-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin\shader\PS_Deferred.hlsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin\shader\PS_Light.hlsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SCREEN", ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPARISON_MIN_MAG_LINEAR_MIP_POINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LessEqual</t>
+  </si>
+  <si>
+    <t>Border</t>
+  </si>
+  <si>
+    <t>ShadowLinearBorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0, 1.0, 1.0, 1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1E+37</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -972,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8BBF2-956F-48E9-BBE6-729EE7E2F5E2}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1083,7 +1129,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7">
         <v>256</v>
@@ -1373,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4560A-F35D-4988-9549-4C651F4AA502}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1446,13 +1492,13 @@
         <v>87</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -1477,18 +1523,42 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -1708,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259E956-8E75-4517-BA6D-F8B92BFC35D4}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1831,7 +1901,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -1840,7 +1910,7 @@
         <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1854,7 +1924,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
@@ -1863,7 +1933,7 @@
         <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1872,6 +1942,78 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
         <v>80</v>
       </c>
     </row>

--- a/Assets/bin/graphics/table/ResourceTable.xlsx
+++ b/Assets/bin/graphics/table/ResourceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190C06F1-BA62-4E47-9F2A-822D85A69CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1351ABF9-2E6F-453D-8A8F-9310012B2DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="25410" windowHeight="11385" activeTab="2" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="11670" yWindow="2235" windowWidth="25410" windowHeight="11385" activeTab="3" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffer" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="107">
   <si>
     <t>../BufferTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,6 +454,9 @@
   <si>
     <t>1E+37</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R32_UINT</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1161,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1353,7 +1356,7 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
         <v>81</v>
@@ -1419,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4560A-F35D-4988-9549-4C651F4AA502}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1587,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6A424A-8EEF-47CF-A093-D188DE6D6807}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1687,7 +1690,7 @@
         <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1704,7 +1707,7 @@
         <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1721,7 +1724,7 @@
         <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7">
         <v>1</v>

--- a/Assets/bin/graphics/table/ResourceTable.xlsx
+++ b/Assets/bin/graphics/table/ResourceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1351ABF9-2E6F-453D-8A8F-9310012B2DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7904000B-D8DF-426A-8CAD-58D59E87614A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11670" yWindow="2235" windowWidth="25410" windowHeight="11385" activeTab="3" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="25410" windowHeight="11385" activeTab="1" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffer" sheetId="1" r:id="rId1"/>
@@ -457,6 +457,7 @@
   </si>
   <si>
     <t>R32_UINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1160,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF5D3E1-5B1A-4EE3-94EB-2356032A60E1}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1590,7 +1591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6A424A-8EEF-47CF-A093-D188DE6D6807}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/Assets/bin/graphics/table/ResourceTable.xlsx
+++ b/Assets/bin/graphics/table/ResourceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7904000B-D8DF-426A-8CAD-58D59E87614A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1726394E-39F1-4193-80DD-7F3EBFF1EF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="25410" windowHeight="11385" activeTab="1" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="25410" windowHeight="11385" activeTab="4" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffer" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
   <si>
     <t>../BufferTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,10 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bin\shader\PS_Light.hlsl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"SCREEN", ""</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,7 +452,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R32_UINT</t>
+    <t>bin\shader\PS_DeferredLight.hlsl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1161,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF5D3E1-5B1A-4EE3-94EB-2356032A60E1}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1357,7 +1353,7 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
         <v>81</v>
@@ -1496,13 +1492,13 @@
         <v>87</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -1528,31 +1524,31 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>47</v>
@@ -1561,7 +1557,7 @@
         <v>48</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1784,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259E956-8E75-4517-BA6D-F8B92BFC35D4}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1995,7 +1991,7 @@
         <v>76</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2009,7 +2005,7 @@
         <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E10">
         <v>0</v>

--- a/Assets/bin/graphics/table/ResourceTable.xlsx
+++ b/Assets/bin/graphics/table/ResourceTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1726394E-39F1-4193-80DD-7F3EBFF1EF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929F8C5D-8D68-49B1-8A10-80BAAFAE8890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="25410" windowHeight="11385" activeTab="4" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffer" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="114">
   <si>
     <t>../BufferTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -453,6 +453,38 @@
   </si>
   <si>
     <t>bin\shader\PS_DeferredLight.hlsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_BRDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_Irradiance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_Radiance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin\shader\PS_IrradianceMap.hlsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin\shader\PS_RadianceMap.hlsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin\shader\PS_BRDFLookUpTable.hlsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VS_IBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin\shader\VS_IBL.hlsl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,8 +734,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E6289A31-9B5F-4B30-8281-E5CB45BB9055}" name="표1_6" displayName="표1_6" ref="A2:I14" totalsRowShown="0">
-  <autoFilter ref="A2:I14" xr:uid="{E6289A31-9B5F-4B30-8281-E5CB45BB9055}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E6289A31-9B5F-4B30-8281-E5CB45BB9055}" name="표1_6" displayName="표1_6" ref="A2:I17" totalsRowShown="0">
+  <autoFilter ref="A2:I17" xr:uid="{E6289A31-9B5F-4B30-8281-E5CB45BB9055}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{22546911-C0B5-4B07-B60F-245141A96152}" name="UUID : String"/>
     <tableColumn id="2" xr3:uid="{F89B14CC-E2E6-4692-819C-4DCF93A5149A}" name="ShaderType : String"/>
@@ -1778,10 +1810,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259E956-8E75-4517-BA6D-F8B92BFC35D4}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2017,6 +2049,98 @@
         <v>80</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/bin/graphics/table/ResourceTable.xlsx
+++ b/Assets/bin/graphics/table/ResourceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929F8C5D-8D68-49B1-8A10-80BAAFAE8890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7630DFD3-C711-4042-9CD7-AA4BD2A1C264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffer" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="123">
   <si>
     <t>../BufferTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,10 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00000000-0000-0000-1000-000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Vertex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,10 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00000000-0000-0000-2000-000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pixel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -374,10 +366,6 @@
     <t>R8G8B8A8_UNORM</t>
   </si>
   <si>
-    <t>00000000-0000-0000-3000-000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bin\shader\VS_SkyBox.hlsl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,14 +374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00000000-0000-0000-4000-000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000000-0000-0000-5000-000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bin\shader\VS_Grid.hlsl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,18 +386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00000000-0000-0000-6000-000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000000-0000-0000-7000-000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000000-0000-0000-8000-000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bin\shader\PS_Deferred.hlsl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,35 +424,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PS_BRDF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS_Irradiance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS_Radiance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bin\shader\PS_IrradianceMap.hlsl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bin\shader\PS_RadianceMap.hlsl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bin\shader\PS_BRDFLookUpTable.hlsl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VS_IBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bin\shader\VS_IBL.hlsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0001-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0002-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0003-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0004-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0005-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0006-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0007-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0008-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0009-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0010-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0011-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0012-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRDFLookUpTable</t>
+  </si>
+  <si>
+    <t>IrradianceMap</t>
+  </si>
+  <si>
+    <t>TextureCube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512, 512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreFilteredMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin\shader\PS_PreFilteredMap.hlsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRDFLookUpTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IrradianceMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512, 512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1280, 720</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1050,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8BBF2-956F-48E9-BBE6-729EE7E2F5E2}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1096,7 +1130,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>512</v>
+        <v>912</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1161,7 +1195,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B7">
         <v>256</v>
@@ -1190,7 +1224,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1244,7 +1278,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
@@ -1255,10 +1289,10 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H3" s="6">
         <v>1</v>
@@ -1284,7 +1318,7 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1310,7 +1344,7 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1336,7 +1370,7 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1362,7 +1396,7 @@
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1388,7 +1422,7 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1414,7 +1448,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1423,6 +1457,84 @@
         <v>1</v>
       </c>
       <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
         <v>1</v>
       </c>
     </row>
@@ -1521,16 +1633,16 @@
         <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -1556,19 +1668,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -1577,10 +1689,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>47</v>
@@ -1589,7 +1701,7 @@
         <v>48</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1617,10 +1729,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6A424A-8EEF-47CF-A093-D188DE6D6807}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1670,7 +1782,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1679,10 +1794,10 @@
         <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1695,6 +1810,9 @@
       <c r="A4" t="s">
         <v>59</v>
       </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
       <c r="D4">
         <v>6</v>
       </c>
@@ -1705,7 +1823,7 @@
         <v>21</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1715,6 +1833,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
       <c r="E5" t="s">
         <v>60</v>
       </c>
@@ -1722,7 +1843,7 @@
         <v>27</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1732,6 +1853,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
       <c r="E6" t="s">
         <v>60</v>
       </c>
@@ -1739,7 +1863,7 @@
         <v>25</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1749,6 +1873,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
       <c r="E7" t="s">
         <v>60</v>
       </c>
@@ -1756,7 +1883,7 @@
         <v>26</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1766,6 +1893,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
       <c r="E8" t="s">
         <v>60</v>
       </c>
@@ -1773,7 +1903,7 @@
         <v>28</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1783,6 +1913,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
       <c r="E9" t="s">
         <v>61</v>
       </c>
@@ -1790,12 +1923,90 @@
         <v>29</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
         <v>0</v>
       </c>
     </row>
@@ -1812,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259E956-8E75-4517-BA6D-F8B92BFC35D4}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1864,281 +2075,281 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
         <v>71</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>72</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>73</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
         <v>74</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>75</v>
-      </c>
-      <c r="G3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
         <v>75</v>
-      </c>
-      <c r="G4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
         <v>78</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
         <v>72</v>
       </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
         <v>75</v>
-      </c>
-      <c r="G6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
         <v>78</v>
-      </c>
-      <c r="C7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
         <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>73</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
         <v>74</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>75</v>
       </c>
-      <c r="G9" t="s">
-        <v>76</v>
-      </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
         <v>78</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
         <v>72</v>
       </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
         <v>75</v>
-      </c>
-      <c r="G11" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
         <v>78</v>
-      </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
         <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
         <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/bin/graphics/table/ResourceTable.xlsx
+++ b/Assets/bin/graphics/table/ResourceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7630DFD3-C711-4042-9CD7-AA4BD2A1C264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161B4D9D-C647-45D0-84B8-27B9FD5F9407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="25410" windowHeight="11385" activeTab="1" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffer" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="128">
   <si>
     <t>../BufferTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -519,6 +519,26 @@
   </si>
   <si>
     <t>1280, 720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"DynamicUsage"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0013-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin\shader\PS_Sampling.hlsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrameTexture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrameRT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,8 +730,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{38134550-B9E6-4A01-AA0A-12C7EFDE20E9}" name="표1_3" displayName="표1_3" ref="A2:J12" totalsRowShown="0">
-  <autoFilter ref="A2:J12" xr:uid="{38134550-B9E6-4A01-AA0A-12C7EFDE20E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{38134550-B9E6-4A01-AA0A-12C7EFDE20E9}" name="표1_3" displayName="표1_3" ref="A2:J13" totalsRowShown="0">
+  <autoFilter ref="A2:J13" xr:uid="{38134550-B9E6-4A01-AA0A-12C7EFDE20E9}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{CFCEFD86-0455-4905-B612-0328D0863E61}" name="UUID : String"/>
     <tableColumn id="2" xr3:uid="{3EBF8C12-B1CB-4DB4-886B-46BF343E1C2A}" name="ImageDesc : String"/>
@@ -1084,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8BBF2-956F-48E9-BBE6-729EE7E2F5E2}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1141,6 +1161,9 @@
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1158,6 +1181,9 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1175,6 +1201,9 @@
       <c r="F5">
         <v>2</v>
       </c>
+      <c r="G5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1192,6 +1221,9 @@
       <c r="F6">
         <v>4</v>
       </c>
+      <c r="G6" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1208,6 +1240,9 @@
       </c>
       <c r="F7">
         <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1223,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF5D3E1-5B1A-4EE3-94EB-2356032A60E1}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1535,6 +1570,32 @@
         <v>5</v>
       </c>
       <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <v>1</v>
       </c>
     </row>
@@ -1729,10 +1790,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6A424A-8EEF-47CF-A093-D188DE6D6807}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B13" sqref="B13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2010,6 +2071,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2021,10 +2108,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259E956-8E75-4517-BA6D-F8B92BFC35D4}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2352,6 +2439,29 @@
         <v>78</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/bin/graphics/table/ResourceTable.xlsx
+++ b/Assets/bin/graphics/table/ResourceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161B4D9D-C647-45D0-84B8-27B9FD5F9407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3439C03-F81B-461B-A26C-0E539386B748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="25410" windowHeight="11385" activeTab="1" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="25410" windowHeight="11385" activeTab="3" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffer" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="129">
   <si>
     <t>../BufferTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,11 +534,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FrameTexture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FrameRT</t>
+    <t>LightPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightPassTexture</t>
+  </si>
+  <si>
+    <t>LightPassTexture</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1258,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF5D3E1-5B1A-4EE3-94EB-2356032A60E1}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1575,7 +1578,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -1792,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6A424A-8EEF-47CF-A093-D188DE6D6807}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2073,7 +2076,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
         <v>79</v>
@@ -2085,7 +2088,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="G13">
         <v>0</v>

--- a/Assets/bin/graphics/table/ResourceTable.xlsx
+++ b/Assets/bin/graphics/table/ResourceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3439C03-F81B-461B-A26C-0E539386B748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C8ACF8-E129-4650-B425-F8C45DC9A4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="25410" windowHeight="11385" activeTab="3" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffer" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="130">
   <si>
     <t>../BufferTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -514,10 +514,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>512, 512</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1280, 720</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,6 +538,14 @@
   </si>
   <si>
     <t>LightPassTexture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin\shader\PS_Final.hlsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0014-000000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1165,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1185,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1205,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1225,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1245,7 +1249,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1578,7 +1582,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -1793,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6A424A-8EEF-47CF-A093-D188DE6D6807}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1849,10 +1853,10 @@
         <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>60</v>
@@ -1871,40 +1875,40 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>59</v>
       </c>
-      <c r="B4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4">
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5">
         <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>122</v>
       </c>
       <c r="E5" t="s">
         <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1918,13 +1922,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
         <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1938,13 +1942,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
         <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1958,13 +1962,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
         <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1978,39 +1982,33 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
         <v>61</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>29</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" t="s">
-        <v>113</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2024,10 +2022,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2036,13 +2034,13 @@
         <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2050,10 +2048,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2062,7 +2060,7 @@
         <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2076,10 +2074,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2088,15 +2086,61 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>0</v>
       </c>
     </row>
@@ -2111,10 +2155,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259E956-8E75-4517-BA6D-F8B92BFC35D4}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2444,7 +2488,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -2453,7 +2497,7 @@
         <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2462,6 +2506,29 @@
         <v>74</v>
       </c>
       <c r="G15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
         <v>78</v>
       </c>
     </row>

--- a/Assets/bin/graphics/table/ResourceTable.xlsx
+++ b/Assets/bin/graphics/table/ResourceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C8ACF8-E129-4650-B425-F8C45DC9A4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BFC7FC-1C4D-498B-BF7C-04F1FE44786B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffer" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="132">
   <si>
     <t>../BufferTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -546,6 +546,14 @@
   </si>
   <si>
     <t>00000000-0000-0000-0014-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0015-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin\shader\PS_ToneMapping.hlsl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1799,7 +1807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6A424A-8EEF-47CF-A093-D188DE6D6807}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2155,10 +2163,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259E956-8E75-4517-BA6D-F8B92BFC35D4}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2532,6 +2540,29 @@
         <v>78</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/bin/graphics/table/ResourceTable.xlsx
+++ b/Assets/bin/graphics/table/ResourceTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BFC7FC-1C4D-498B-BF7C-04F1FE44786B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984E131A-5C5F-48CC-8AED-1155A3AA811A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="136">
   <si>
     <t>../BufferTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,9 +363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R8G8B8A8_UNORM</t>
-  </si>
-  <si>
     <t>bin\shader\VS_SkyBox.hlsl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -554,6 +551,26 @@
   </si>
   <si>
     <t>bin\shader\PS_ToneMapping.hlsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Reinhard", ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0016-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0017-000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Filmic", ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Uncharted", ""</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1177,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1197,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1217,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1237,12 +1254,12 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7">
         <v>256</v>
@@ -1257,7 +1274,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1274,7 +1291,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1338,8 +1355,8 @@
         <v>23</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
-        <v>82</v>
+      <c r="F3" t="s">
+        <v>24</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>79</v>
@@ -1512,7 +1529,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -1524,7 +1541,7 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1538,10 +1555,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1550,7 +1567,7 @@
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H11">
         <v>6</v>
@@ -1564,10 +1581,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -1576,7 +1593,7 @@
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -1590,7 +1607,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -1709,16 +1726,16 @@
         <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -1744,31 +1761,31 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>47</v>
@@ -1777,7 +1794,7 @@
         <v>48</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1861,7 +1878,7 @@
         <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2030,10 +2047,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2042,7 +2059,7 @@
         <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2056,10 +2073,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2068,7 +2085,7 @@
         <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2082,10 +2099,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2094,7 +2111,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2108,7 +2125,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
         <v>79</v>
@@ -2120,7 +2137,7 @@
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2163,10 +2180,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259E956-8E75-4517-BA6D-F8B92BFC35D4}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2217,7 +2234,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -2240,7 +2257,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -2249,7 +2266,7 @@
         <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2263,7 +2280,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -2286,7 +2303,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -2295,7 +2312,7 @@
         <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2309,7 +2326,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -2318,7 +2335,7 @@
         <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2332,7 +2349,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -2341,7 +2358,7 @@
         <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2355,7 +2372,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -2376,12 +2393,12 @@
         <v>75</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -2390,7 +2407,7 @@
         <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2404,7 +2421,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -2413,7 +2430,7 @@
         <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2427,7 +2444,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -2436,7 +2453,7 @@
         <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2450,7 +2467,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -2459,7 +2476,7 @@
         <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2473,7 +2490,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -2482,7 +2499,7 @@
         <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2496,7 +2513,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -2505,7 +2522,7 @@
         <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2519,7 +2536,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -2528,7 +2545,7 @@
         <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2540,9 +2557,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -2551,7 +2568,7 @@
         <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2561,6 +2578,61 @@
       </c>
       <c r="G17" t="s">
         <v>78</v>
+      </c>
+      <c r="H17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/bin/graphics/table/ResourceTable.xlsx
+++ b/Assets/bin/graphics/table/ResourceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984E131A-5C5F-48CC-8AED-1155A3AA811A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BAF5A1-478F-4492-8918-04F62F1F06C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="25410" windowHeight="11385" activeTab="3" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffer" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="137">
   <si>
     <t>../BufferTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,6 +571,10 @@
   </si>
   <si>
     <t>"Uncharted", ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostProcessFrame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -762,8 +766,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{38134550-B9E6-4A01-AA0A-12C7EFDE20E9}" name="표1_3" displayName="표1_3" ref="A2:J13" totalsRowShown="0">
-  <autoFilter ref="A2:J13" xr:uid="{38134550-B9E6-4A01-AA0A-12C7EFDE20E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{38134550-B9E6-4A01-AA0A-12C7EFDE20E9}" name="표1_3" displayName="표1_3" ref="A2:J14" totalsRowShown="0">
+  <autoFilter ref="A2:J14" xr:uid="{38134550-B9E6-4A01-AA0A-12C7EFDE20E9}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{CFCEFD86-0455-4905-B612-0328D0863E61}" name="UUID : String"/>
     <tableColumn id="2" xr3:uid="{3EBF8C12-B1CB-4DB4-886B-46BF343E1C2A}" name="ImageDesc : String"/>
@@ -1291,7 +1295,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1628,6 +1632,33 @@
         <v>1</v>
       </c>
       <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1822,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6A424A-8EEF-47CF-A093-D188DE6D6807}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2169,6 +2200,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2182,7 +2239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259E956-8E75-4517-BA6D-F8B92BFC35D4}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>

--- a/Assets/bin/graphics/table/ResourceTable.xlsx
+++ b/Assets/bin/graphics/table/ResourceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BAF5A1-478F-4492-8918-04F62F1F06C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DACAE9F-72E6-4B3A-BD9B-6A187231F672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="25410" windowHeight="11385" activeTab="3" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="25410" windowHeight="11385" firstSheet="4" activeTab="4" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffer" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="151">
   <si>
     <t>../BufferTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,10 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bin\shader\PS_SkyBox.hlsl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ps_5_0</t>
   </si>
   <si>
@@ -363,10 +359,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bin\shader\VS_SkyBox.hlsl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MIN_MAG_MIP_LINEAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -562,19 +554,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>"Filmic", ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostProcessFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0018-000000000000</t>
+  </si>
+  <si>
+    <t>bin\shader\PS_SkyBox-Cubed.hlsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin\shader\VS_SkyBox-Cubed.hlsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>00000000-0000-0000-0017-000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Filmic", ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0019-000000000000</t>
+  </si>
+  <si>
+    <t>vert</t>
+  </si>
+  <si>
+    <t>frag</t>
+  </si>
+  <si>
+    <t>bin\shader\Skybox-Procedural.hlsl</t>
+  </si>
+  <si>
+    <t>vs_5_0</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0020-000000000000</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0021-000000000000</t>
+  </si>
+  <si>
+    <t>bin\shader\Skybox-Panoramic.hlsl</t>
+  </si>
+  <si>
+    <t>Pixel</t>
+  </si>
+  <si>
+    <t>HLSL</t>
+  </si>
+  <si>
+    <t>bin\shader\PS_ToneMapping.hlsl</t>
   </si>
   <si>
     <t>"Uncharted", ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PostProcessFrame</t>
+  </si>
+  <si>
+    <t>Vertex</t>
+  </si>
+  <si>
+    <t>bin\shader\Skybox-Panoramic.hlsl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -824,8 +865,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E6289A31-9B5F-4B30-8281-E5CB45BB9055}" name="표1_6" displayName="표1_6" ref="A2:I17" totalsRowShown="0">
-  <autoFilter ref="A2:I17" xr:uid="{E6289A31-9B5F-4B30-8281-E5CB45BB9055}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E6289A31-9B5F-4B30-8281-E5CB45BB9055}" name="표1_6" displayName="표1_6" ref="A2:I23" totalsRowShown="0">
+  <autoFilter ref="A2:I23" xr:uid="{E6289A31-9B5F-4B30-8281-E5CB45BB9055}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{22546911-C0B5-4B07-B60F-245141A96152}" name="UUID : String"/>
     <tableColumn id="2" xr3:uid="{F89B14CC-E2E6-4692-819C-4DCF93A5149A}" name="ShaderType : String"/>
@@ -1198,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1218,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1238,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1258,12 +1299,12 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7">
         <v>256</v>
@@ -1278,7 +1319,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1349,7 +1390,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
@@ -1363,7 +1404,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H3" s="6">
         <v>1</v>
@@ -1389,7 +1430,7 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1415,7 +1456,7 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1441,7 +1482,7 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1467,7 +1508,7 @@
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1493,7 +1534,7 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1519,7 +1560,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1533,7 +1574,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -1545,7 +1586,7 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1559,10 +1600,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1571,7 +1612,7 @@
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H11">
         <v>6</v>
@@ -1585,10 +1626,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -1597,7 +1638,7 @@
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -1611,7 +1652,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -1623,7 +1664,7 @@
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1637,7 +1678,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>22</v>
@@ -1650,7 +1691,7 @@
         <v>24</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H14" s="6">
         <v>1</v>
@@ -1757,16 +1798,16 @@
         <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -1792,31 +1833,31 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>47</v>
@@ -1825,7 +1866,7 @@
         <v>48</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1855,7 +1896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6A424A-8EEF-47CF-A093-D188DE6D6807}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1906,10 +1947,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1918,7 +1959,7 @@
         <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1932,7 +1973,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
         <v>61</v>
@@ -1955,7 +1996,7 @@
         <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -1978,7 +2019,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
         <v>60</v>
@@ -1998,7 +2039,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
         <v>60</v>
@@ -2018,7 +2059,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
         <v>60</v>
@@ -2038,7 +2079,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
@@ -2058,7 +2099,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
         <v>61</v>
@@ -2078,10 +2119,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2090,7 +2131,7 @@
         <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2104,10 +2145,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
         <v>113</v>
-      </c>
-      <c r="B12" t="s">
-        <v>115</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2116,7 +2157,7 @@
         <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2130,10 +2171,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2142,7 +2183,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2156,10 +2197,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -2168,7 +2209,7 @@
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2182,7 +2223,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
         <v>61</v>
@@ -2202,10 +2243,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2214,7 +2255,7 @@
         <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2237,10 +2278,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259E956-8E75-4517-BA6D-F8B92BFC35D4}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2291,7 +2332,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -2314,7 +2355,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -2323,7 +2364,7 @@
         <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2337,7 +2378,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -2346,7 +2387,7 @@
         <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2355,12 +2396,12 @@
         <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -2369,7 +2410,7 @@
         <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2383,7 +2424,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -2392,7 +2433,7 @@
         <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2401,12 +2442,12 @@
         <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -2415,7 +2456,7 @@
         <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2424,12 +2465,12 @@
         <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -2450,12 +2491,12 @@
         <v>75</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -2464,7 +2505,7 @@
         <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2473,12 +2514,12 @@
         <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -2487,7 +2528,7 @@
         <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2501,7 +2542,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -2510,7 +2551,7 @@
         <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2519,12 +2560,12 @@
         <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -2533,7 +2574,7 @@
         <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2542,12 +2583,12 @@
         <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -2556,7 +2597,7 @@
         <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2565,12 +2606,12 @@
         <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -2579,7 +2620,7 @@
         <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2588,12 +2629,12 @@
         <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -2602,7 +2643,7 @@
         <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2611,12 +2652,12 @@
         <v>74</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -2625,7 +2666,7 @@
         <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2634,15 +2675,15 @@
         <v>74</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -2651,7 +2692,7 @@
         <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2660,24 +2701,24 @@
         <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2686,10 +2727,102 @@
         <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s">
-        <v>135</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
